--- a/selected_repos_small.xlsx
+++ b/selected_repos_small.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jacky\OneDrive - Fachhochschule St. Pölten\Diplomarbeit\Diplomarbeit\MDI_Thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fhstp-my.sharepoint.com/personal/di211514_fhstp_ac_at/Documents/Diplomarbeit/Diplomarbeit/MDI_Thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFAB13E0-A3DB-41AC-B752-F5ECB8C8BF58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{C512A853-7ACF-488B-B04C-82D7A0ED2F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{272818D0-F971-4B49-BCC4-837B9BC68ED0}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="16440" xr2:uid="{2E83F44F-1CBF-4A35-8F2C-75DD00CC376A}"/>
+    <workbookView xWindow="28680" yWindow="75" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{2E83F44F-1CBF-4A35-8F2C-75DD00CC376A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tabelle2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="324">
   <si>
     <t>Repository</t>
   </si>
@@ -324,6 +325,690 @@
   </si>
   <si>
     <t>Perl, Shell, JavaScript, Python, PHP, Makefile</t>
+  </si>
+  <si>
+    <t>python-pillow</t>
+  </si>
+  <si>
+    <t>Pillow</t>
+  </si>
+  <si>
+    <t>Tan et al.</t>
+  </si>
+  <si>
+    <t>Python, C, HTML, PostScript, Shell, Makefile</t>
+  </si>
+  <si>
+    <t>Aman et al.</t>
+  </si>
+  <si>
+    <t>Repositories with high popularity years ago -&gt; comparison to older project state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tan et al. </t>
+  </si>
+  <si>
+    <t>Repositories selected 2022 -&gt; comparison with results directly</t>
+  </si>
+  <si>
+    <t>qemu</t>
+  </si>
+  <si>
+    <t>C, C++, Python, Shell, Assembly, ,Meson</t>
+  </si>
+  <si>
+    <t>openemr</t>
+  </si>
+  <si>
+    <t>PHP, JavaScript, XSLT, HTML, Twig, CSS</t>
+  </si>
+  <si>
+    <t>Piwigo</t>
+  </si>
+  <si>
+    <t>PHP, HTML, JavaScript, Smarty, CSS, Yacc</t>
+  </si>
+  <si>
+    <t>glpi-project</t>
+  </si>
+  <si>
+    <t>glpi</t>
+  </si>
+  <si>
+    <t>PHP, Twig, JavaScript, SCSS</t>
+  </si>
+  <si>
+    <t>jenkinsci</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>Java, HTML, JavaScript, SCSS, CSS, Groovy</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>hhvm</t>
+  </si>
+  <si>
+    <t>C++, Hack, OCaml, Rust, Python, C</t>
+  </si>
+  <si>
+    <t>Dolibarr</t>
+  </si>
+  <si>
+    <t>dolibarr</t>
+  </si>
+  <si>
+    <t>PHP, JavaScript, CSS, SCSS, Less, Perl</t>
+  </si>
+  <si>
+    <t>FFmpeg</t>
+  </si>
+  <si>
+    <t>C, Assembly, Makefile, C++, Objective-C, Cuda</t>
+  </si>
+  <si>
+    <t>zulip</t>
+  </si>
+  <si>
+    <t>Python, JavaScript, HTML, TypeScript, CSS, Handlebars</t>
+  </si>
+  <si>
+    <t>bigtreecms</t>
+  </si>
+  <si>
+    <t>BigTree-CMS</t>
+  </si>
+  <si>
+    <t>PHP, JavaScript, Less</t>
+  </si>
+  <si>
+    <t>postgres</t>
+  </si>
+  <si>
+    <t>C, PLpgSQL, Perl, Yacc, Makefile, Meson</t>
+  </si>
+  <si>
+    <t>ceph</t>
+  </si>
+  <si>
+    <t>C++, Python, Raku, C, TypeScript, Shell</t>
+  </si>
+  <si>
+    <t>samba-team</t>
+  </si>
+  <si>
+    <t>samba</t>
+  </si>
+  <si>
+    <t>C, Python, Shell, Perl, XSLT, Yacc</t>
+  </si>
+  <si>
+    <t>QEMU</t>
+  </si>
+  <si>
+    <t>OPENEMR</t>
+  </si>
+  <si>
+    <t>GLPI</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <t>HHVM</t>
+  </si>
+  <si>
+    <t>Zulip</t>
+  </si>
+  <si>
+    <t>BigTree CMS</t>
+  </si>
+  <si>
+    <t>PostgreSQL</t>
+  </si>
+  <si>
+    <t>Ceph</t>
+  </si>
+  <si>
+    <t>Samba</t>
+  </si>
+  <si>
+    <t>FasterXML</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>Jackson Databind</t>
+  </si>
+  <si>
+    <t>Java, Logos</t>
+  </si>
+  <si>
+    <t>django</t>
+  </si>
+  <si>
+    <t>Django</t>
+  </si>
+  <si>
+    <t>Python, HTML, JavaScript, CSS, Shell, Smarty</t>
+  </si>
+  <si>
+    <t>openssl</t>
+  </si>
+  <si>
+    <t>OpenSSL</t>
+  </si>
+  <si>
+    <t>C, Perl, Raku, Assembly, Shell, C++</t>
+  </si>
+  <si>
+    <t>Cisco-Talos</t>
+  </si>
+  <si>
+    <t>clamav</t>
+  </si>
+  <si>
+    <t>ClamAV</t>
+  </si>
+  <si>
+    <t>C, C++, Rust, Cmake, Python, HTML</t>
+  </si>
+  <si>
+    <t>xen-project</t>
+  </si>
+  <si>
+    <t>xen</t>
+  </si>
+  <si>
+    <t>Xen</t>
+  </si>
+  <si>
+    <t>C, C++, Python, Assembly, Makefile, Shell</t>
+  </si>
+  <si>
+    <t>phpmyadmin</t>
+  </si>
+  <si>
+    <t>phpMyAdmin</t>
+  </si>
+  <si>
+    <t>PHP, TypeScript, Twig, SCSS, Shell, JavaScript</t>
+  </si>
+  <si>
+    <t>OISF</t>
+  </si>
+  <si>
+    <t>suricata</t>
+  </si>
+  <si>
+    <t>Suricata</t>
+  </si>
+  <si>
+    <t>C, Rust, M4, Python, Makefile, Shell</t>
+  </si>
+  <si>
+    <t>wireshark</t>
+  </si>
+  <si>
+    <t>Wireshark</t>
+  </si>
+  <si>
+    <t>C, C++, Python, Perl, Cmake, SourcePawn</t>
+  </si>
+  <si>
+    <t>mongodb</t>
+  </si>
+  <si>
+    <t>mongo</t>
+  </si>
+  <si>
+    <t>MongoDB</t>
+  </si>
+  <si>
+    <t>C++, JavaScript, Python, Shell, TLA, Yacc</t>
+  </si>
+  <si>
+    <t>Angry IP Scanner</t>
+  </si>
+  <si>
+    <t>Eclipse Checkstyle Plug-in</t>
+  </si>
+  <si>
+    <t>Firebird</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>Linux</t>
+  </si>
+  <si>
+    <t>Moodle</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>Scribus</t>
+  </si>
+  <si>
+    <t>Unetbootin</t>
+  </si>
+  <si>
+    <t>Wine</t>
+  </si>
+  <si>
+    <t>GParted</t>
+  </si>
+  <si>
+    <t>KDiff3</t>
+  </si>
+  <si>
+    <t>Projectname from Source</t>
+  </si>
+  <si>
+    <t>Hibernate ORM</t>
+  </si>
+  <si>
+    <t>HPCC Platform</t>
+  </si>
+  <si>
+    <t>Money Manager Ex</t>
+  </si>
+  <si>
+    <t>Nagios Core</t>
+  </si>
+  <si>
+    <t>NAPS2</t>
+  </si>
+  <si>
+    <t>Pandora FMS</t>
+  </si>
+  <si>
+    <t>Notepad++ Python Script</t>
+  </si>
+  <si>
+    <t>Password Safe</t>
+  </si>
+  <si>
+    <t>PMD</t>
+  </si>
+  <si>
+    <t>Ruby on Rails</t>
+  </si>
+  <si>
+    <t>The OpenGL Extension Wrangler Library (OpenGL Lib)</t>
+  </si>
+  <si>
+    <t>Universal Media Server</t>
+  </si>
+  <si>
+    <t>xCAT</t>
+  </si>
+  <si>
+    <t>microsoft</t>
+  </si>
+  <si>
+    <t>TypeScript</t>
+  </si>
+  <si>
+    <t>Zhang et al.</t>
+  </si>
+  <si>
+    <t>No values for projects, but high relevance due to selection criteria.</t>
+  </si>
+  <si>
+    <t>apple</t>
+  </si>
+  <si>
+    <t>swift</t>
+  </si>
+  <si>
+    <t>Swift</t>
+  </si>
+  <si>
+    <t>C++, Swift, C, Python, Cmake</t>
+  </si>
+  <si>
+    <t>vscode</t>
+  </si>
+  <si>
+    <t>TypeScript, JavaScript, CSS, Rust, HTML, Inno Setup</t>
+  </si>
+  <si>
+    <t>grafana</t>
+  </si>
+  <si>
+    <t>Grafana</t>
+  </si>
+  <si>
+    <t>TypeScript, Go, Rich Text Format</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>C++, Python, MLIR, Starlark, HTML, Go</t>
+  </si>
+  <si>
+    <t>vuejs</t>
+  </si>
+  <si>
+    <t>vue</t>
+  </si>
+  <si>
+    <t>TypeScript, JavaScript</t>
+  </si>
+  <si>
+    <t>Tan et al., Chong et al.</t>
+  </si>
+  <si>
+    <t>keystonejs</t>
+  </si>
+  <si>
+    <t>keystone</t>
+  </si>
+  <si>
+    <t>Chong et al.</t>
+  </si>
+  <si>
+    <t>Keystone</t>
+  </si>
+  <si>
+    <t>apache</t>
+  </si>
+  <si>
+    <t>cxf</t>
+  </si>
+  <si>
+    <t>Java, XSLT, JavaScript, Shell, HTML, Batchfile</t>
+  </si>
+  <si>
+    <t>Apache-CXF</t>
+  </si>
+  <si>
+    <t>tomcat</t>
+  </si>
+  <si>
+    <t>Java, HTML, Shell, Batchfile, NSIS, XSLT</t>
+  </si>
+  <si>
+    <t>Tomcat-</t>
+  </si>
+  <si>
+    <t>Compare Tomcat 11 with Tomcat-6 and Tomcat-7</t>
+  </si>
+  <si>
+    <t>Tan et al., Foucault et al.</t>
+  </si>
+  <si>
+    <t>Aman et al., Foucault et al.</t>
+  </si>
+  <si>
+    <t>angular</t>
+  </si>
+  <si>
+    <t>Foucault et al.</t>
+  </si>
+  <si>
+    <t>TypeScript, JavaScript, Starlark, HTML, CSS, SCSS</t>
+  </si>
+  <si>
+    <t>ansible</t>
+  </si>
+  <si>
+    <t>Python, PowerShell, ,Shell, C#, Jinja, Go</t>
+  </si>
+  <si>
+    <t>Angular.js</t>
+  </si>
+  <si>
+    <t>Ansible</t>
+  </si>
+  <si>
+    <t>jquery</t>
+  </si>
+  <si>
+    <t>JavaScript, HTML</t>
+  </si>
+  <si>
+    <t>JQuery</t>
+  </si>
+  <si>
+    <t>sebastianbergmann</t>
+  </si>
+  <si>
+    <t>phpunit</t>
+  </si>
+  <si>
+    <t>PHP, Smarty</t>
+  </si>
+  <si>
+    <t>PHPUnit</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>C#, C, TSQL, PLpgSQL, ASP.NET, JavaScript</t>
+  </si>
+  <si>
+    <t>Mono</t>
+  </si>
+  <si>
+    <t>Reconsider foucault projects, if include, focus on simple metrics due to conclusion</t>
+  </si>
+  <si>
+    <t>allegro</t>
+  </si>
+  <si>
+    <t>ralph</t>
+  </si>
+  <si>
+    <t>Python, HTML, SCSS, JavaScript</t>
+  </si>
+  <si>
+    <t>Wang et al.</t>
+  </si>
+  <si>
+    <t>Zhang et al., Wang et al.</t>
+  </si>
+  <si>
+    <t>Wang et al. Compare health score</t>
+  </si>
+  <si>
+    <t>sabnzbd</t>
+  </si>
+  <si>
+    <t>Python, JavaScript, CSS, NSIS, HTML, Shell</t>
+  </si>
+  <si>
+    <t>mbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">django-simple-captcha </t>
+  </si>
+  <si>
+    <t>Python, HTML, Shell</t>
+  </si>
+  <si>
+    <t>Aman et al., Tan et al., Bhandari et al.</t>
+  </si>
+  <si>
+    <t>Zhang et al., Wang et al., Bhandari et al.</t>
+  </si>
+  <si>
+    <t>Tan et al., Bhandari et al.</t>
+  </si>
+  <si>
+    <t>Bhandari et al. Explores CVEs, thus comparison to advisories recommended</t>
+  </si>
+  <si>
+    <t>ImageMagick</t>
+  </si>
+  <si>
+    <t>Bhandari et al.</t>
+  </si>
+  <si>
+    <t>C, HTML, C++, Makefile, XS, Shell</t>
+  </si>
+  <si>
+    <t>the-tcpdump-group</t>
+  </si>
+  <si>
+    <t>tcpdump</t>
+  </si>
+  <si>
+    <t>C, Roff, Cmake, Shell, Perl, M4</t>
+  </si>
+  <si>
+    <t>php</t>
+  </si>
+  <si>
+    <t>php-src</t>
+  </si>
+  <si>
+    <t>C, PHP, M4, C++, Shell, Lua</t>
+  </si>
+  <si>
+    <t>MISP</t>
+  </si>
+  <si>
+    <t>PHP, JavaScript, Python, CSS, Shell, Perl</t>
+  </si>
+  <si>
+    <t>Tan et al., Chan et al.</t>
+  </si>
+  <si>
+    <t>curl</t>
+  </si>
+  <si>
+    <t>curls</t>
+  </si>
+  <si>
+    <t>Chan et al.</t>
+  </si>
+  <si>
+    <t>C, Perl, M4, Python, DIGITAL Command Language, Cmake</t>
+  </si>
+  <si>
+    <t>libarchive</t>
+  </si>
+  <si>
+    <t>C, Roff, Cmake, M4, Makefile, Shell</t>
+  </si>
+  <si>
+    <t>Automattic</t>
+  </si>
+  <si>
+    <t>mongoose</t>
+  </si>
+  <si>
+    <t>JavaScript, TypeScript</t>
+  </si>
+  <si>
+    <t>sleuthkit</t>
+  </si>
+  <si>
+    <t>C, Java, C++, Python, M4, Perl</t>
+  </si>
+  <si>
+    <t>libgit2</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>aubio</t>
+  </si>
+  <si>
+    <t>C, Python</t>
+  </si>
+  <si>
+    <t xml:space="preserve">libimobiledevice </t>
+  </si>
+  <si>
+    <t>libimobiledevice</t>
+  </si>
+  <si>
+    <t>C, Cython, M4</t>
+  </si>
+  <si>
+    <t>libevent</t>
+  </si>
+  <si>
+    <t>C, Roff, Cmake, M4, Python, Shell</t>
+  </si>
+  <si>
+    <t>Curl</t>
+  </si>
+  <si>
+    <t>Libarchive</t>
+  </si>
+  <si>
+    <t>Sleuthkit</t>
+  </si>
+  <si>
+    <t>Libgit2</t>
+  </si>
+  <si>
+    <t>Aubio</t>
+  </si>
+  <si>
+    <t>Libevent</t>
+  </si>
+  <si>
+    <t>libvips</t>
+  </si>
+  <si>
+    <t>C, C++, Python</t>
+  </si>
+  <si>
+    <t>Libvips</t>
+  </si>
+  <si>
+    <t>pocoproject</t>
+  </si>
+  <si>
+    <t>poco</t>
+  </si>
+  <si>
+    <t>C, C++, CMake, JavaScript, Makefile, Batchfile</t>
+  </si>
+  <si>
+    <t>nmap</t>
+  </si>
+  <si>
+    <t>npcap</t>
+  </si>
+  <si>
+    <t>C, C++, Batchfile, PowerShell</t>
+  </si>
+  <si>
+    <t>Poco</t>
+  </si>
+  <si>
+    <t>libusb</t>
+  </si>
+  <si>
+    <t>C, C++, M4, Makefile</t>
+  </si>
+  <si>
+    <t>Libusb</t>
+  </si>
+  <si>
+    <t>inotify-tools</t>
+  </si>
+  <si>
+    <t>C++, Shell, C, Makefile, M4</t>
+  </si>
+  <si>
+    <t>Chan et al. CVEs and Vulnerability comparison</t>
   </si>
 </sst>
 </file>
@@ -377,6 +1062,59 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>370326</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>94796</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5F9E283-80F9-C363-CDE1-5FF5813AA611}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10439400" y="5800725"/>
+          <a:ext cx="9190476" cy="3628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -676,26 +1414,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF4F2882-9497-4CF8-9BA5-6116754363E3}">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="28.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="42.7109375" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1">
         <v>45127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
@@ -703,25 +1443,34 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
+        <v>190</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>5</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -729,25 +1478,34 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>178</v>
       </c>
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
         <v>19</v>
       </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>102</v>
+      </c>
+      <c r="M3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -755,22 +1513,25 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
         <v>20</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
       <c r="F4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>45</v>
       </c>
@@ -778,22 +1539,25 @@
         <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>1</v>
+        <v>179</v>
       </c>
       <c r="D5" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
         <v>47</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>21</v>
       </c>
@@ -801,22 +1565,25 @@
         <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>1</v>
+        <v>180</v>
       </c>
       <c r="D6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
         <v>23</v>
       </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
       <c r="F6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -824,22 +1591,25 @@
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>1</v>
+        <v>181</v>
       </c>
       <c r="D7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
         <v>25</v>
       </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
       <c r="F7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>48</v>
       </c>
@@ -847,22 +1617,25 @@
         <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>188</v>
       </c>
       <c r="D8" t="s">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
         <v>50</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
       <c r="F8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -870,22 +1643,25 @@
         <v>52</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="D9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
         <v>53</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
       <c r="F9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>54</v>
       </c>
@@ -893,22 +1669,25 @@
         <v>55</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>192</v>
       </c>
       <c r="D10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
         <v>56</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>57</v>
       </c>
@@ -916,22 +1695,25 @@
         <v>58</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>189</v>
       </c>
       <c r="D11" t="s">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
         <v>59</v>
       </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>60</v>
       </c>
@@ -939,22 +1721,25 @@
         <v>60</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="D12" t="s">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
         <v>61</v>
       </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
       <c r="F12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>26</v>
       </c>
@@ -962,22 +1747,25 @@
         <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>182</v>
       </c>
       <c r="D13" t="s">
+        <v>266</v>
+      </c>
+      <c r="E13" t="s">
         <v>28</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -985,22 +1773,25 @@
         <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
         <v>31</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
       <c r="F14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>32</v>
       </c>
@@ -1008,22 +1799,25 @@
         <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
         <v>34</v>
       </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -1031,22 +1825,25 @@
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>193</v>
       </c>
       <c r="D16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
         <v>36</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
       <c r="F16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1054,22 +1851,25 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>1</v>
+        <v>183</v>
       </c>
       <c r="D17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
         <v>38</v>
       </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
       <c r="F17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -1077,22 +1877,25 @@
         <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>1</v>
+        <v>194</v>
       </c>
       <c r="D18" t="s">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
         <v>41</v>
       </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
       <c r="F18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>42</v>
       </c>
@@ -1100,22 +1903,25 @@
         <v>43</v>
       </c>
       <c r="C19" t="s">
-        <v>1</v>
+        <v>195</v>
       </c>
       <c r="D19" t="s">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
       <c r="F19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>62</v>
       </c>
@@ -1123,22 +1929,25 @@
         <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
         <v>63</v>
       </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>64</v>
       </c>
@@ -1146,22 +1955,25 @@
         <v>65</v>
       </c>
       <c r="C21" t="s">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="D21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
         <v>66</v>
       </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>67</v>
       </c>
@@ -1169,22 +1981,25 @@
         <v>67</v>
       </c>
       <c r="C22" t="s">
-        <v>1</v>
+        <v>196</v>
       </c>
       <c r="D22" t="s">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
         <v>68</v>
       </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
       <c r="F22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>69</v>
       </c>
@@ -1192,22 +2007,25 @@
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>1</v>
+        <v>198</v>
       </c>
       <c r="D23" t="s">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
         <v>70</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>71</v>
       </c>
@@ -1215,22 +2033,25 @@
         <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="D24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
         <v>72</v>
       </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
       <c r="F24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>73</v>
       </c>
@@ -1238,22 +2059,25 @@
         <v>73</v>
       </c>
       <c r="C25" t="s">
-        <v>1</v>
+        <v>184</v>
       </c>
       <c r="D25" t="s">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
         <v>74</v>
       </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>75</v>
       </c>
@@ -1261,22 +2085,25 @@
         <v>75</v>
       </c>
       <c r="C26" t="s">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="D26" t="s">
+        <v>236</v>
+      </c>
+      <c r="E26" t="s">
         <v>76</v>
       </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
       <c r="F26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>77</v>
       </c>
@@ -1284,22 +2111,25 @@
         <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>1</v>
+        <v>185</v>
       </c>
       <c r="D27" t="s">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
         <v>79</v>
       </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
       <c r="F27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>80</v>
       </c>
@@ -1307,25 +2137,28 @@
         <v>81</v>
       </c>
       <c r="C28" t="s">
-        <v>1</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
         <v>82</v>
       </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
       <c r="F28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G28">
         <v>1</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H28">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>84</v>
       </c>
@@ -1333,22 +2166,25 @@
         <v>84</v>
       </c>
       <c r="C29" t="s">
-        <v>1</v>
+        <v>186</v>
       </c>
       <c r="D29" t="s">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
         <v>85</v>
       </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>86</v>
       </c>
@@ -1356,22 +2192,25 @@
         <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>1</v>
+        <v>202</v>
       </c>
       <c r="D30" t="s">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
         <v>87</v>
       </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
       <c r="F30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G30">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>88</v>
       </c>
@@ -1379,22 +2218,25 @@
         <v>89</v>
       </c>
       <c r="C31" t="s">
-        <v>1</v>
+        <v>187</v>
       </c>
       <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
         <v>90</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
       <c r="F31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>91</v>
       </c>
@@ -1402,18 +2244,21 @@
         <v>91</v>
       </c>
       <c r="C32" t="s">
-        <v>1</v>
+        <v>91</v>
       </c>
       <c r="D32" t="s">
+        <v>266</v>
+      </c>
+      <c r="E32" t="s">
         <v>92</v>
       </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
       <c r="F32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>1</v>
       </c>
     </row>
@@ -1425,45 +2270,2745 @@
         <v>94</v>
       </c>
       <c r="C33" t="s">
-        <v>1</v>
+        <v>203</v>
       </c>
       <c r="D33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
         <v>95</v>
       </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
       <c r="F33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G33">
+        <v>1</v>
+      </c>
+      <c r="H33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" t="s">
+        <v>97</v>
+      </c>
+      <c r="D34" t="s">
+        <v>98</v>
+      </c>
+      <c r="E34" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>1</v>
+      </c>
+      <c r="H34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B35" t="s">
+        <v>104</v>
+      </c>
+      <c r="C35" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+      <c r="H35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>106</v>
+      </c>
+      <c r="B36" t="s">
+        <v>106</v>
+      </c>
+      <c r="C36" t="s">
+        <v>137</v>
+      </c>
+      <c r="D36" t="s">
+        <v>98</v>
+      </c>
+      <c r="E36" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+      <c r="H36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B37" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" t="s">
+        <v>108</v>
+      </c>
+      <c r="D37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E37" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>1</v>
+      </c>
+      <c r="H37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B38" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" t="s">
+        <v>138</v>
+      </c>
+      <c r="D38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" t="s">
+        <v>112</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="H38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B39" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" t="s">
+        <v>139</v>
+      </c>
+      <c r="D39" t="s">
+        <v>235</v>
+      </c>
+      <c r="E39" t="s">
+        <v>115</v>
+      </c>
+      <c r="F39">
+        <v>0</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+      <c r="D40" t="s">
+        <v>268</v>
+      </c>
+      <c r="E40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>119</v>
+      </c>
+      <c r="B41" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" t="s">
+        <v>121</v>
+      </c>
+      <c r="F41">
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>122</v>
+      </c>
+      <c r="B42" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" t="s">
+        <v>268</v>
+      </c>
+      <c r="E42" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
+        <v>124</v>
+      </c>
+      <c r="C43" t="s">
+        <v>141</v>
+      </c>
+      <c r="D43" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" t="s">
+        <v>125</v>
+      </c>
+      <c r="F43">
+        <v>0</v>
+      </c>
+      <c r="G43">
+        <v>1</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" t="s">
+        <v>142</v>
+      </c>
+      <c r="D44" t="s">
+        <v>98</v>
+      </c>
+      <c r="E44" t="s">
+        <v>128</v>
+      </c>
+      <c r="F44">
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>129</v>
+      </c>
+      <c r="C45" t="s">
+        <v>143</v>
+      </c>
+      <c r="D45" t="s">
+        <v>98</v>
+      </c>
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>1</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>131</v>
+      </c>
+      <c r="B46" t="s">
+        <v>131</v>
+      </c>
+      <c r="C46" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" t="s">
+        <v>132</v>
+      </c>
+      <c r="F46">
+        <v>0</v>
+      </c>
+      <c r="G46">
+        <v>1</v>
+      </c>
+      <c r="H46">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="B47" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>98</v>
+      </c>
+      <c r="E47" t="s">
+        <v>135</v>
+      </c>
+      <c r="F47">
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="H47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>146</v>
+      </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
+      <c r="C48" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" t="s">
+        <v>98</v>
+      </c>
+      <c r="E48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>1</v>
+      </c>
+      <c r="H48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>150</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>151</v>
+      </c>
+      <c r="D49" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>1</v>
+      </c>
+      <c r="H49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>153</v>
+      </c>
+      <c r="B50" t="s">
+        <v>153</v>
+      </c>
+      <c r="C50" t="s">
+        <v>154</v>
+      </c>
+      <c r="D50" t="s">
+        <v>281</v>
+      </c>
+      <c r="E50" t="s">
+        <v>155</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>1</v>
+      </c>
+      <c r="H50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>156</v>
+      </c>
+      <c r="B51" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" t="s">
+        <v>158</v>
+      </c>
+      <c r="D51" t="s">
+        <v>98</v>
+      </c>
+      <c r="E51" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+      <c r="G51">
+        <v>1</v>
+      </c>
+      <c r="H51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>160</v>
+      </c>
+      <c r="B52" t="s">
+        <v>161</v>
+      </c>
+      <c r="C52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D52" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" t="s">
+        <v>163</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>1</v>
+      </c>
+      <c r="H52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>164</v>
+      </c>
+      <c r="B53" t="s">
+        <v>164</v>
+      </c>
+      <c r="C53" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" t="s">
+        <v>268</v>
+      </c>
+      <c r="E53" t="s">
+        <v>166</v>
+      </c>
+      <c r="F53">
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <v>1</v>
+      </c>
+      <c r="H53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>167</v>
+      </c>
+      <c r="B54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C54" t="s">
+        <v>169</v>
+      </c>
+      <c r="D54" t="s">
+        <v>98</v>
+      </c>
+      <c r="E54" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54">
+        <v>0</v>
+      </c>
+      <c r="G54">
+        <v>1</v>
+      </c>
+      <c r="H54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>171</v>
+      </c>
+      <c r="B55" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" t="s">
+        <v>172</v>
+      </c>
+      <c r="D55" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" t="s">
+        <v>173</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>1</v>
+      </c>
+      <c r="H55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>174</v>
+      </c>
+      <c r="B56" t="s">
+        <v>175</v>
+      </c>
+      <c r="C56" t="s">
+        <v>176</v>
+      </c>
+      <c r="D56" t="s">
+        <v>98</v>
+      </c>
+      <c r="E56" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>1</v>
+      </c>
+      <c r="H56">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" t="s">
+        <v>205</v>
+      </c>
+      <c r="D57" t="s">
+        <v>206</v>
+      </c>
+      <c r="E57" t="s">
+        <v>205</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>208</v>
+      </c>
+      <c r="B58" t="s">
+        <v>209</v>
+      </c>
+      <c r="C58" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" t="s">
+        <v>259</v>
+      </c>
+      <c r="E58" t="s">
+        <v>211</v>
+      </c>
+      <c r="F58">
+        <v>0</v>
+      </c>
+      <c r="G58">
+        <v>1</v>
+      </c>
+      <c r="H58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>204</v>
+      </c>
+      <c r="B59" t="s">
+        <v>212</v>
+      </c>
+      <c r="C59" t="s">
+        <v>212</v>
+      </c>
+      <c r="D59" t="s">
+        <v>206</v>
+      </c>
+      <c r="E59" t="s">
+        <v>213</v>
+      </c>
+      <c r="F59">
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>214</v>
+      </c>
+      <c r="B60" t="s">
+        <v>214</v>
+      </c>
+      <c r="C60" t="s">
+        <v>215</v>
+      </c>
+      <c r="D60" t="s">
+        <v>206</v>
+      </c>
+      <c r="E60" t="s">
+        <v>216</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>217</v>
+      </c>
+      <c r="B61" t="s">
+        <v>217</v>
+      </c>
+      <c r="C61" t="s">
+        <v>217</v>
+      </c>
+      <c r="D61" t="s">
+        <v>267</v>
+      </c>
+      <c r="E61" t="s">
+        <v>218</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>1</v>
+      </c>
+      <c r="H61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>219</v>
+      </c>
+      <c r="B62" t="s">
+        <v>220</v>
+      </c>
+      <c r="C62" t="s">
+        <v>220</v>
+      </c>
+      <c r="D62" t="s">
+        <v>206</v>
+      </c>
+      <c r="E62" t="s">
+        <v>221</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>223</v>
+      </c>
+      <c r="B63" t="s">
+        <v>224</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="D63" t="s">
+        <v>225</v>
+      </c>
+      <c r="E63" t="s">
+        <v>205</v>
+      </c>
+      <c r="F63">
+        <v>0</v>
+      </c>
+      <c r="G63">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>227</v>
+      </c>
+      <c r="B64" t="s">
+        <v>228</v>
+      </c>
+      <c r="C64" t="s">
+        <v>230</v>
+      </c>
+      <c r="D64" t="s">
+        <v>225</v>
+      </c>
+      <c r="E64" t="s">
+        <v>229</v>
+      </c>
+      <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>227</v>
+      </c>
+      <c r="B65" t="s">
+        <v>231</v>
+      </c>
+      <c r="C65" t="s">
+        <v>233</v>
+      </c>
+      <c r="D65" t="s">
+        <v>225</v>
+      </c>
+      <c r="E65" t="s">
+        <v>232</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <v>1</v>
+      </c>
+      <c r="I65" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>237</v>
+      </c>
+      <c r="B66" t="s">
+        <v>237</v>
+      </c>
+      <c r="C66" t="s">
+        <v>242</v>
+      </c>
+      <c r="D66" t="s">
+        <v>238</v>
+      </c>
+      <c r="E66" t="s">
+        <v>239</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>240</v>
+      </c>
+      <c r="B67" t="s">
+        <v>240</v>
+      </c>
+      <c r="C67" t="s">
+        <v>243</v>
+      </c>
+      <c r="D67" t="s">
+        <v>238</v>
+      </c>
+      <c r="E67" t="s">
+        <v>241</v>
+      </c>
+      <c r="F67">
+        <v>0</v>
+      </c>
+      <c r="G67">
+        <v>1</v>
+      </c>
+      <c r="H67">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>244</v>
+      </c>
+      <c r="B68" t="s">
+        <v>244</v>
+      </c>
+      <c r="C68" t="s">
+        <v>246</v>
+      </c>
+      <c r="D68" t="s">
+        <v>238</v>
+      </c>
+      <c r="E68" t="s">
+        <v>245</v>
+      </c>
+      <c r="F68">
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <v>1</v>
+      </c>
+      <c r="H68">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>247</v>
+      </c>
+      <c r="B69" t="s">
+        <v>248</v>
+      </c>
+      <c r="C69" t="s">
+        <v>250</v>
+      </c>
+      <c r="D69" t="s">
+        <v>238</v>
+      </c>
+      <c r="E69" t="s">
+        <v>249</v>
+      </c>
+      <c r="F69">
+        <v>0</v>
+      </c>
+      <c r="G69">
+        <v>1</v>
+      </c>
+      <c r="H69">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>251</v>
+      </c>
+      <c r="B70" t="s">
+        <v>251</v>
+      </c>
+      <c r="C70" t="s">
+        <v>253</v>
+      </c>
+      <c r="D70" t="s">
+        <v>238</v>
+      </c>
+      <c r="E70" t="s">
+        <v>252</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>255</v>
+      </c>
+      <c r="B71" t="s">
+        <v>256</v>
+      </c>
+      <c r="D71" t="s">
+        <v>258</v>
+      </c>
+      <c r="E71" t="s">
+        <v>257</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1</v>
+      </c>
+      <c r="H71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>261</v>
+      </c>
+      <c r="B72" t="s">
+        <v>261</v>
+      </c>
+      <c r="D72" t="s">
+        <v>258</v>
+      </c>
+      <c r="E72" t="s">
+        <v>262</v>
+      </c>
+      <c r="F72">
+        <v>0</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="H72">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>263</v>
+      </c>
+      <c r="B73" t="s">
+        <v>264</v>
+      </c>
+      <c r="D73" t="s">
+        <v>258</v>
+      </c>
+      <c r="E73" t="s">
+        <v>265</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>1</v>
+      </c>
+      <c r="H73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>270</v>
+      </c>
+      <c r="B74" t="s">
+        <v>270</v>
+      </c>
+      <c r="C74" t="s">
+        <v>270</v>
+      </c>
+      <c r="D74" t="s">
+        <v>271</v>
+      </c>
+      <c r="E74" t="s">
+        <v>272</v>
+      </c>
+      <c r="F74">
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <v>1</v>
+      </c>
+      <c r="H74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>273</v>
+      </c>
+      <c r="B75" t="s">
+        <v>274</v>
+      </c>
+      <c r="D75" t="s">
+        <v>271</v>
+      </c>
+      <c r="E75" t="s">
+        <v>275</v>
+      </c>
+      <c r="F75">
+        <v>0</v>
+      </c>
+      <c r="G75">
+        <v>1</v>
+      </c>
+      <c r="H75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>276</v>
+      </c>
+      <c r="B76" t="s">
+        <v>277</v>
+      </c>
+      <c r="D76" t="s">
+        <v>271</v>
+      </c>
+      <c r="E76" t="s">
+        <v>278</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+      <c r="G76">
+        <v>1</v>
+      </c>
+      <c r="H76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>279</v>
+      </c>
+      <c r="B77" t="s">
+        <v>279</v>
+      </c>
+      <c r="D77" t="s">
+        <v>271</v>
+      </c>
+      <c r="E77" t="s">
+        <v>280</v>
+      </c>
+      <c r="F77">
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <v>1</v>
+      </c>
+      <c r="H77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>282</v>
+      </c>
+      <c r="B78" t="s">
+        <v>283</v>
+      </c>
+      <c r="C78" t="s">
+        <v>302</v>
+      </c>
+      <c r="D78" t="s">
+        <v>284</v>
+      </c>
+      <c r="E78" t="s">
+        <v>285</v>
+      </c>
+      <c r="F78">
+        <v>0</v>
+      </c>
+      <c r="G78">
+        <v>1</v>
+      </c>
+      <c r="H78">
+        <v>1</v>
+      </c>
+      <c r="I78" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>286</v>
+      </c>
+      <c r="B79" t="s">
+        <v>286</v>
+      </c>
+      <c r="C79" t="s">
+        <v>303</v>
+      </c>
+      <c r="D79" t="s">
+        <v>284</v>
+      </c>
+      <c r="E79" t="s">
+        <v>287</v>
+      </c>
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>1</v>
+      </c>
+      <c r="H79">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>288</v>
+      </c>
+      <c r="B80" t="s">
+        <v>289</v>
+      </c>
+      <c r="C80" t="s">
+        <v>289</v>
+      </c>
+      <c r="D80" t="s">
+        <v>284</v>
+      </c>
+      <c r="E80" t="s">
+        <v>290</v>
+      </c>
+      <c r="F80">
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <v>1</v>
+      </c>
+      <c r="H80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>291</v>
+      </c>
+      <c r="B81" t="s">
+        <v>291</v>
+      </c>
+      <c r="C81" t="s">
+        <v>304</v>
+      </c>
+      <c r="D81" t="s">
+        <v>284</v>
+      </c>
+      <c r="E81" t="s">
+        <v>292</v>
+      </c>
+      <c r="F81">
+        <v>0</v>
+      </c>
+      <c r="G81">
+        <v>1</v>
+      </c>
+      <c r="H81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>293</v>
+      </c>
+      <c r="B82" t="s">
+        <v>293</v>
+      </c>
+      <c r="C82" t="s">
+        <v>305</v>
+      </c>
+      <c r="D82" t="s">
+        <v>284</v>
+      </c>
+      <c r="E82" t="s">
+        <v>294</v>
+      </c>
+      <c r="F82">
+        <v>0</v>
+      </c>
+      <c r="G82">
+        <v>1</v>
+      </c>
+      <c r="H82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>295</v>
+      </c>
+      <c r="B83" t="s">
+        <v>295</v>
+      </c>
+      <c r="C83" t="s">
+        <v>306</v>
+      </c>
+      <c r="D83" t="s">
+        <v>284</v>
+      </c>
+      <c r="E83" t="s">
+        <v>296</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>1</v>
+      </c>
+      <c r="H83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" t="s">
+        <v>297</v>
+      </c>
+      <c r="C84" t="s">
+        <v>298</v>
+      </c>
+      <c r="D84" t="s">
+        <v>284</v>
+      </c>
+      <c r="E84" t="s">
+        <v>299</v>
+      </c>
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>1</v>
+      </c>
+      <c r="H84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>300</v>
+      </c>
+      <c r="B85" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" t="s">
+        <v>307</v>
+      </c>
+      <c r="D85" t="s">
+        <v>284</v>
+      </c>
+      <c r="E85" t="s">
+        <v>301</v>
+      </c>
+      <c r="F85">
+        <v>0</v>
+      </c>
+      <c r="G85">
+        <v>1</v>
+      </c>
+      <c r="H85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>308</v>
+      </c>
+      <c r="B86" t="s">
+        <v>308</v>
+      </c>
+      <c r="C86" t="s">
+        <v>310</v>
+      </c>
+      <c r="D86" t="s">
+        <v>284</v>
+      </c>
+      <c r="E86" t="s">
+        <v>309</v>
+      </c>
+      <c r="F86">
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <v>1</v>
+      </c>
+      <c r="H86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>311</v>
+      </c>
+      <c r="B87" t="s">
+        <v>312</v>
+      </c>
+      <c r="C87" t="s">
+        <v>317</v>
+      </c>
+      <c r="D87" t="s">
+        <v>284</v>
+      </c>
+      <c r="E87" t="s">
+        <v>313</v>
+      </c>
+      <c r="F87">
+        <v>0</v>
+      </c>
+      <c r="G87">
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>314</v>
+      </c>
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" t="s">
+        <v>315</v>
+      </c>
+      <c r="D88" t="s">
+        <v>284</v>
+      </c>
+      <c r="E88" t="s">
+        <v>316</v>
+      </c>
+      <c r="F88">
+        <v>0</v>
+      </c>
+      <c r="G88">
+        <v>1</v>
+      </c>
+      <c r="H88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>318</v>
+      </c>
+      <c r="B89" t="s">
+        <v>318</v>
+      </c>
+      <c r="C89" t="s">
+        <v>320</v>
+      </c>
+      <c r="D89" t="s">
+        <v>284</v>
+      </c>
+      <c r="E89" t="s">
+        <v>319</v>
+      </c>
+      <c r="F89">
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <v>1</v>
+      </c>
+      <c r="H89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>321</v>
+      </c>
+      <c r="B90" t="s">
+        <v>321</v>
+      </c>
+      <c r="C90" t="s">
+        <v>321</v>
+      </c>
+      <c r="D90" t="s">
+        <v>284</v>
+      </c>
+      <c r="E90" t="s">
+        <v>322</v>
+      </c>
+      <c r="F90">
+        <v>0</v>
+      </c>
+      <c r="G90">
+        <v>1</v>
+      </c>
+      <c r="H90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
         <v>9</v>
       </c>
+      <c r="B96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>15</v>
+      </c>
+      <c r="E96" t="s">
+        <v>11</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>1</v>
+      </c>
+      <c r="H96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N101" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEC20E30-3BB6-4308-B85B-BBD3B344967A}">
+  <dimension ref="A1:D88"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection sqref="A1:D88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>191</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>192</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>189</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>60</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>182</v>
+      </c>
+      <c r="B11" t="s">
+        <v>266</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>193</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>194</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>195</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>197</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>196</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>198</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>199</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>71</v>
+      </c>
+      <c r="D22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>73</v>
+      </c>
+      <c r="D23" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>77</v>
+      </c>
+      <c r="D25" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>201</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>186</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>202</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>86</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B30" t="s">
+        <v>266</v>
+      </c>
+      <c r="C30" t="s">
+        <v>91</v>
+      </c>
+      <c r="D30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>203</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>93</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C32" t="s">
+        <v>96</v>
+      </c>
+      <c r="D32" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>136</v>
+      </c>
+      <c r="B33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" t="s">
+        <v>104</v>
+      </c>
+      <c r="D33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>137</v>
+      </c>
+      <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>106</v>
+      </c>
+      <c r="D34" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>98</v>
+      </c>
+      <c r="C36" t="s">
+        <v>110</v>
+      </c>
+      <c r="D36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" t="s">
+        <v>235</v>
+      </c>
+      <c r="C37" t="s">
+        <v>113</v>
+      </c>
+      <c r="D37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>140</v>
+      </c>
+      <c r="B38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>119</v>
+      </c>
       <c r="B39" t="s">
-        <v>10</v>
+        <v>98</v>
       </c>
       <c r="C39" t="s">
-        <v>15</v>
+        <v>119</v>
       </c>
       <c r="D39" t="s">
-        <v>11</v>
-      </c>
-      <c r="E39">
-        <v>0</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="H39" t="s">
-        <v>14</v>
+        <v>120</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B40" t="s">
+        <v>268</v>
+      </c>
+      <c r="C40" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C43" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
+        <v>98</v>
+      </c>
+      <c r="C44" t="s">
+        <v>131</v>
+      </c>
+      <c r="D44" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+      <c r="C45" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>148</v>
+      </c>
+      <c r="B46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C46" t="s">
+        <v>146</v>
+      </c>
+      <c r="D46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B47" t="s">
+        <v>222</v>
+      </c>
+      <c r="C47" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>154</v>
+      </c>
+      <c r="B48" t="s">
+        <v>281</v>
+      </c>
+      <c r="C48" t="s">
+        <v>153</v>
+      </c>
+      <c r="D48" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>158</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
+        <v>160</v>
+      </c>
+      <c r="D50" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>169</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>167</v>
+      </c>
+      <c r="D52" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>172</v>
+      </c>
+      <c r="B53" t="s">
+        <v>98</v>
+      </c>
+      <c r="C53" t="s">
+        <v>171</v>
+      </c>
+      <c r="D53" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" t="s">
+        <v>98</v>
+      </c>
+      <c r="C54" t="s">
+        <v>174</v>
+      </c>
+      <c r="D54" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>205</v>
+      </c>
+      <c r="B55" t="s">
+        <v>206</v>
+      </c>
+      <c r="C55" t="s">
+        <v>204</v>
+      </c>
+      <c r="D55" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>210</v>
+      </c>
+      <c r="B56" t="s">
+        <v>259</v>
+      </c>
+      <c r="C56" t="s">
+        <v>208</v>
+      </c>
+      <c r="D56" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>212</v>
+      </c>
+      <c r="B57" t="s">
+        <v>206</v>
+      </c>
+      <c r="C57" t="s">
+        <v>204</v>
+      </c>
+      <c r="D57" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>215</v>
+      </c>
+      <c r="B58" t="s">
+        <v>206</v>
+      </c>
+      <c r="C58" t="s">
+        <v>214</v>
+      </c>
+      <c r="D58" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>217</v>
+      </c>
+      <c r="B59" t="s">
+        <v>267</v>
+      </c>
+      <c r="C59" t="s">
+        <v>217</v>
+      </c>
+      <c r="D59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>220</v>
+      </c>
+      <c r="B60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" t="s">
+        <v>219</v>
+      </c>
+      <c r="D60" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>226</v>
+      </c>
+      <c r="B61" t="s">
+        <v>225</v>
+      </c>
+      <c r="C61" t="s">
+        <v>223</v>
+      </c>
+      <c r="D61" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>230</v>
+      </c>
+      <c r="B62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C62" t="s">
+        <v>227</v>
+      </c>
+      <c r="D62" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63" t="s">
+        <v>225</v>
+      </c>
+      <c r="C63" t="s">
+        <v>227</v>
+      </c>
+      <c r="D63" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>242</v>
+      </c>
+      <c r="B64" t="s">
+        <v>238</v>
+      </c>
+      <c r="C64" t="s">
+        <v>237</v>
+      </c>
+      <c r="D64" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>243</v>
+      </c>
+      <c r="B65" t="s">
+        <v>238</v>
+      </c>
+      <c r="C65" t="s">
+        <v>240</v>
+      </c>
+      <c r="D65" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>246</v>
+      </c>
+      <c r="B66" t="s">
+        <v>238</v>
+      </c>
+      <c r="C66" t="s">
+        <v>244</v>
+      </c>
+      <c r="D66" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" t="s">
+        <v>238</v>
+      </c>
+      <c r="C67" t="s">
+        <v>247</v>
+      </c>
+      <c r="D67" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>253</v>
+      </c>
+      <c r="B68" t="s">
+        <v>238</v>
+      </c>
+      <c r="C68" t="s">
+        <v>251</v>
+      </c>
+      <c r="D68" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>255</v>
+      </c>
+      <c r="D69" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>258</v>
+      </c>
+      <c r="C70" t="s">
+        <v>261</v>
+      </c>
+      <c r="D70" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>258</v>
+      </c>
+      <c r="C71" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>270</v>
+      </c>
+      <c r="B72" t="s">
+        <v>271</v>
+      </c>
+      <c r="C72" t="s">
+        <v>270</v>
+      </c>
+      <c r="D72" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>271</v>
+      </c>
+      <c r="C73" t="s">
+        <v>273</v>
+      </c>
+      <c r="D73" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>271</v>
+      </c>
+      <c r="C74" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>271</v>
+      </c>
+      <c r="C75" t="s">
+        <v>279</v>
+      </c>
+      <c r="D75" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>302</v>
+      </c>
+      <c r="B76" t="s">
+        <v>284</v>
+      </c>
+      <c r="C76" t="s">
+        <v>282</v>
+      </c>
+      <c r="D76" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77" t="s">
+        <v>284</v>
+      </c>
+      <c r="C77" t="s">
+        <v>286</v>
+      </c>
+      <c r="D77" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>289</v>
+      </c>
+      <c r="B78" t="s">
+        <v>284</v>
+      </c>
+      <c r="C78" t="s">
+        <v>288</v>
+      </c>
+      <c r="D78" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>304</v>
+      </c>
+      <c r="B79" t="s">
+        <v>284</v>
+      </c>
+      <c r="C79" t="s">
+        <v>291</v>
+      </c>
+      <c r="D79" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>305</v>
+      </c>
+      <c r="B80" t="s">
+        <v>284</v>
+      </c>
+      <c r="C80" t="s">
+        <v>293</v>
+      </c>
+      <c r="D80" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>306</v>
+      </c>
+      <c r="B81" t="s">
+        <v>284</v>
+      </c>
+      <c r="C81" t="s">
+        <v>295</v>
+      </c>
+      <c r="D81" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>298</v>
+      </c>
+      <c r="B82" t="s">
+        <v>284</v>
+      </c>
+      <c r="C82" t="s">
+        <v>298</v>
+      </c>
+      <c r="D82" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>307</v>
+      </c>
+      <c r="B83" t="s">
+        <v>284</v>
+      </c>
+      <c r="C83" t="s">
+        <v>300</v>
+      </c>
+      <c r="D83" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>310</v>
+      </c>
+      <c r="B84" t="s">
+        <v>284</v>
+      </c>
+      <c r="C84" t="s">
+        <v>308</v>
+      </c>
+      <c r="D84" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>317</v>
+      </c>
+      <c r="B85" t="s">
+        <v>284</v>
+      </c>
+      <c r="C85" t="s">
+        <v>311</v>
+      </c>
+      <c r="D85" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>315</v>
+      </c>
+      <c r="B86" t="s">
+        <v>284</v>
+      </c>
+      <c r="C86" t="s">
+        <v>314</v>
+      </c>
+      <c r="D86" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>320</v>
+      </c>
+      <c r="B87" t="s">
+        <v>284</v>
+      </c>
+      <c r="C87" t="s">
+        <v>318</v>
+      </c>
+      <c r="D87" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>321</v>
+      </c>
+      <c r="B88" t="s">
+        <v>284</v>
+      </c>
+      <c r="C88" t="s">
+        <v>321</v>
+      </c>
+      <c r="D88" t="s">
+        <v>321</v>
       </c>
     </row>
   </sheetData>
